--- a/biology/Botanique/Picnomon_acarna/Picnomon_acarna.xlsx
+++ b/biology/Botanique/Picnomon_acarna/Picnomon_acarna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Picnomon acarna, de nom commun cirse acarna[2], est une espèce de plante à fleurs de la famille des Asteraceae. Elle est l'unique représentant du genre Picnomon.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Picnomon acarna, de nom commun cirse acarna, est une espèce de plante à fleurs de la famille des Asteraceae. Elle est l'unique représentant du genre Picnomon.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Picnomon acarna peut atteindre une hauteur de 2 à 5 dm. La forme biologique de l'espèce est l'hémicryptophyte grimpant. C'est une plante épineuse à la fois sur les feuilles et dans la tige. Les racines sont secondaires.
 La partie aérienne de la tige est dressée et épineuse. La partie terminale est ramifiée en corymbe.
@@ -549,9 +563,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Picnomon acarna est présent dans la région méditerranéenne. En Crète, l'espèce pousse sur des sites rudéraux, des terres cultivées et en jachère, des phryganes surpâturés et des bruyères en coussin à des altitudes de 0 à 2 150 mètres. En Italie, cette espèce est présente au centre et au sud, mais est considérée comme rare. Cette plante se trouve dans les Alpes françaises (départements des Alpes-de-Haute-Provence, Alpes-Maritimes et Drôme), tandis que sur les autres montagnes européennes elle est présente dans le Massif Central, les Pyrénées[3] et les Balkans. Il est généralement présent au Maroc, en Algérie, en Tunisie, en Anatolie, en Syrie, Israël et d'autres régions d'Asie occidentale et une zone autour de la mer Caspienne jusqu'au Turkménistan. Certaines présences en Australie-Méridionale sont considérées comme naturalisées.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Picnomon acarna est présent dans la région méditerranéenne. En Crète, l'espèce pousse sur des sites rudéraux, des terres cultivées et en jachère, des phryganes surpâturés et des bruyères en coussin à des altitudes de 0 à 2 150 mètres. En Italie, cette espèce est présente au centre et au sud, mais est considérée comme rare. Cette plante se trouve dans les Alpes françaises (départements des Alpes-de-Haute-Provence, Alpes-Maritimes et Drôme), tandis que sur les autres montagnes européennes elle est présente dans le Massif Central, les Pyrénées et les Balkans. Il est généralement présent au Maroc, en Algérie, en Tunisie, en Anatolie, en Syrie, Israël et d'autres régions d'Asie occidentale et une zone autour de la mer Caspienne jusqu'au Turkménistan. Certaines présences en Australie-Méridionale sont considérées comme naturalisées.
 </t>
         </is>
       </c>
@@ -580,10 +596,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans certains pays, comme le Liban, cette plante est considérée comme un ravageur des cultures agricoles. Une fois implantée sur un certain territoire, elle rivalise surtout avec les autres cultures céréalières en les étouffant. Elle peut également présenter des problèmes de pâturage, car ses épines acérées éloignent les moutons et autres animaux, limitant ainsi les zones de pâturage.
-Elle est une plante hôte de la chenille de Calyciphora acarnella[4].
+Elle est une plante hôte de la chenille de Calyciphora acarnella.
 </t>
         </is>
       </c>
